--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.146599999999991</v>
+        <v>6.010799999999993</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.024099999999997</v>
+        <v>-7.005399999999996</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.902099999999999</v>
+        <v>-8.378199999999994</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.63049999999998</v>
+        <v>-20.52049999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.617499999999992</v>
+        <v>-7.628199999999993</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -618,13 +618,13 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.802700000000001</v>
+        <v>5.629399999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.404900000000003</v>
+        <v>-8.235399999999997</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.03760000000002</v>
+        <v>-22.95420000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.09520000000002</v>
+        <v>-22.11400000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.95890000000001</v>
+        <v>-13.1994</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.225600000000002</v>
+        <v>-8.263999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
